--- a/classfiers/mega/svm/nearmiss/mega-svm-poly-nearmiss-results.xlsx
+++ b/classfiers/mega/svm/nearmiss/mega-svm-poly-nearmiss-results.xlsx
@@ -470,13 +470,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7708333333333334</v>
+        <v>0.9791666666666666</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8705882352941177</v>
+        <v>0.9894736842105264</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8059895833333334</v>
+        <v>0.9839409722222221</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.425531914893617</v>
+        <v>0.9787234042553191</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5555555555555557</v>
+        <v>0.989247311827957</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5031028368794326</v>
+        <v>0.9968971631205674</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         <v>0.2909090909090909</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9459219858156028</v>
+        <v>0.9822695035460992</v>
       </c>
     </row>
     <row r="5">
@@ -527,13 +527,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8532801418439717</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6285714285714286</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9618794326241136</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4483156028368794</v>
+        <v>0.73395390070922</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5867719208895681</v>
+        <v>0.8015978577442822</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8140347960992909</v>
+        <v>0.9926215277777779</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/mega/svm/nearmiss/mega-svm-poly-nearmiss-results.xlsx
+++ b/classfiers/mega/svm/nearmiss/mega-svm-poly-nearmiss-results.xlsx
@@ -470,13 +470,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9791666666666666</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9894736842105264</v>
+        <v>0.988235294117647</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9839409722222221</v>
+        <v>0.9799154334038054</v>
       </c>
     </row>
     <row r="3">
@@ -489,13 +489,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9787234042553191</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="D3" t="n">
-        <v>0.989247311827957</v>
+        <v>0.988235294117647</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9968971631205674</v>
+        <v>0.9984143763213531</v>
       </c>
     </row>
     <row r="4">
@@ -508,13 +508,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1702127659574468</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2909090909090909</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9822695035460992</v>
+        <v>0.9561310782241016</v>
       </c>
     </row>
     <row r="5">
@@ -527,10 +527,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.9135802469135803</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -546,10 +546,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.7906976744186046</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8292682926829268</v>
+        <v>0.8831168831168831</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -565,13 +565,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.73395390070922</v>
+        <v>0.7533826638477801</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8015978577442822</v>
+        <v>0.816172005191613</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9926215277777779</v>
+        <v>0.986892177589852</v>
       </c>
     </row>
   </sheetData>
